--- a/filmData.xlsx
+++ b/filmData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>片名</t>
   </si>
@@ -29,7 +29,10 @@
     <t>时长</t>
   </si>
   <si>
-    <t>1</t>
+    <t>THEWORLD</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -102,16 +105,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/filmData.xlsx
+++ b/filmData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>片名</t>
   </si>
@@ -29,10 +29,13 @@
     <t>时长</t>
   </si>
   <si>
-    <t>THEWORLD</t>
+    <t>THE</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
